--- a/medicine/Psychotrope/Château_Malromé/Château_Malromé.xlsx
+++ b/medicine/Psychotrope/Château_Malromé/Château_Malromé.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Ch%C3%A2teau_Malrom%C3%A9</t>
+          <t>Château_Malromé</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le château (de) Malromé se situe sur la commune de Saint-André-du-Bois, dans le département français de la Gironde. Il était une des demeures familiales du peintre Henri de Toulouse-Lautrec.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Ch%C3%A2teau_Malrom%C3%A9</t>
+          <t>Château_Malromé</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,14 +524,16 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les premières traces du château et de son vignoble remontent au XVIe siècle avec la construction de la « maison noble de Taste » par Étienne de Rostéguy de Lancre, membre du Parlement de Bordeaux, seigneur de Saint-Macaire et de Rauzan.
-Vers 1780, le château de Taste est acquis par Catherine de Forcade, veuve de Jean-Baptiste de Geneste, baron de Malromé, qui lui donnera ce nom. Ils n'eurent pas d'enfants[2].
-En 1847 il est transmis à ses petits-neveux, Adolphe de Forcade Laroquette, président du Conseil d'État sous Napoléon III, et à son demi-frère, le maréchal Armand Jacques Leroy de Saint-Arnaud, gouverneur de Paris et ministre de la Guerre, qui feront restaurer le château « d'après Viollet-le-Duc »[3].
-Après la mort d'Adolphe (1874), sa veuve, née Adélaïde Fergusson, vend en 1883 le domaine viticole, éprouvé par la crise du phylloxéra, à la comtesse Adèle de Toulouse-Lautrec (1841-1930). Celle-ci est attirée par sa proximité avec le château de Respide où réside sa cousine Cécile Bourlet de Saint-Aubin, épouse d'Ernest Pascal. Dès son acquisition, la comtesse de Toulouse-Lautrec, en gestionnaire avisée, fait replanter son vignoble en porte-greffes américains résistants au phylloxéra[4]. Son fils, le célèbre peintre Henri, découvre le château à 19 ans, et s'y plait beaucoup. Chaque année, il y effectue de longs séjours durant l'été. Il peint sans relâche et, pour se détendre, rame et tire à l'arc avec des engins envoyés par son père.[réf. nécessaire]
+Vers 1780, le château de Taste est acquis par Catherine de Forcade, veuve de Jean-Baptiste de Geneste, baron de Malromé, qui lui donnera ce nom. Ils n'eurent pas d'enfants.
+En 1847 il est transmis à ses petits-neveux, Adolphe de Forcade Laroquette, président du Conseil d'État sous Napoléon III, et à son demi-frère, le maréchal Armand Jacques Leroy de Saint-Arnaud, gouverneur de Paris et ministre de la Guerre, qui feront restaurer le château « d'après Viollet-le-Duc ».
+Après la mort d'Adolphe (1874), sa veuve, née Adélaïde Fergusson, vend en 1883 le domaine viticole, éprouvé par la crise du phylloxéra, à la comtesse Adèle de Toulouse-Lautrec (1841-1930). Celle-ci est attirée par sa proximité avec le château de Respide où réside sa cousine Cécile Bourlet de Saint-Aubin, épouse d'Ernest Pascal. Dès son acquisition, la comtesse de Toulouse-Lautrec, en gestionnaire avisée, fait replanter son vignoble en porte-greffes américains résistants au phylloxéra. Son fils, le célèbre peintre Henri, découvre le château à 19 ans, et s'y plait beaucoup. Chaque année, il y effectue de longs séjours durant l'été. Il peint sans relâche et, pour se détendre, rame et tire à l'arc avec des engins envoyés par son père.[réf. nécessaire]
 Il y termina son existence et y  mourra le 9 septembre 1901, âgé de 37 ans, avant d'être inhumé au cimetière de Verdelais, où sa mère le rejoindra 29 ans plus tard, en 1930.
-Au décès de la Comtesse Adèle de Toulouse-Lautrec, et faute d’héritier direct, Malromé est vendu par ses neveux à Georges Séré de Rivière, en 1933. D’autres propriétaires se succèderont par la suite (notamment Gabriel Seynat, puis André Sagne, industriel à la Réole, qui l'ouvre au public en 1984) jusqu’au rachat en 2013 par le propriétaire actuel, Monsieur Kim Valéry Huynh, promoteur du luxe français en Asie, qui, avec ses deux filles, en a entrepris la restauration et la mise en valeur[5].
+Au décès de la Comtesse Adèle de Toulouse-Lautrec, et faute d’héritier direct, Malromé est vendu par ses neveux à Georges Séré de Rivière, en 1933. D’autres propriétaires se succèderont par la suite (notamment Gabriel Seynat, puis André Sagne, industriel à la Réole, qui l'ouvre au public en 1984) jusqu’au rachat en 2013 par le propriétaire actuel, Monsieur Kim Valéry Huynh, promoteur du luxe français en Asie, qui, avec ses deux filles, en a entrepris la restauration et la mise en valeur.
 Le Château Malromé a reçu le 7 octobre 2016, le label « Maisons des Illustres », attribué par le ministère de la Culture et de la Communication, en hommage au peintre Henri de Toulouse-Lautrec. Outre la visite, les réceptions, expositions et concerts (9 000 visiteurs par an), le château s'est spécialisé dans l'œnotourisme. La maison Darroze y a ouvert un restaurant en 2018.
 </t>
         </is>
@@ -531,7 +545,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Ch%C3%A2teau_Malrom%C3%A9</t>
+          <t>Château_Malromé</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -549,9 +563,11 @@
           <t>Architecture</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le château s'organise autour d'une cour carrée, aujourd'hui plantée d'une pelouse hexagonale. On y accède par deux poternes opposées, munies de crénelages XIXe. L'aile principale à l'Ouest, de style Renaissance (fenêtres à meneaux),  comporte en son milieu une tour rectangulaire, et deux tours rondes aux extrémités. Les autres ailes (d'anciens communs) ont été rénovées « dans un style contemporain et épuré[6] ».
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le château s'organise autour d'une cour carrée, aujourd'hui plantée d'une pelouse hexagonale. On y accède par deux poternes opposées, munies de crénelages XIXe. L'aile principale à l'Ouest, de style Renaissance (fenêtres à meneaux),  comporte en son milieu une tour rectangulaire, et deux tours rondes aux extrémités. Les autres ailes (d'anciens communs) ont été rénovées « dans un style contemporain et épuré ».
 L'intérieur du logis offre une enfilade de salons, dont plusieurs sont ornés de curieux plafond à caissons et de cheminées monumentales, et des chambres meublées, notamment les anciens appartements du peintre et de sa mère, et la chambre où il mourut.
 </t>
         </is>
@@ -563,7 +579,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Ch%C3%A2teau_Malrom%C3%A9</t>
+          <t>Château_Malromé</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -581,10 +597,12 @@
           <t>Le vignoble</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Le vignoble de Malromé couvre une superficie de quarante deux hectares, situés sur des coteaux argilo-graveleux. Ses vignes sont cultivées depuis cinq siècles. Les chais ont été entièrement restaurés depuis 2013. Les vins bénéficient de l'appellation « Bordeaux » et « Bordeaux supérieur ».
-Le nom de Malromé est homonyme de celui du ruisseau de Malromé et d'un lieu-dit situé à Saint-Jean-de-Duras, traversé par ce même ruisseau, qui pourrait avoir un lien avec une seigneurie de « Malleroumex », citée par Guy Aldonce Ier de Durfort comme voisine au levant de la sienne à Duras[7].
+Le nom de Malromé est homonyme de celui du ruisseau de Malromé et d'un lieu-dit situé à Saint-Jean-de-Duras, traversé par ce même ruisseau, qui pourrait avoir un lien avec une seigneurie de « Malleroumex », citée par Guy Aldonce Ier de Durfort comme voisine au levant de la sienne à Duras.
 </t>
         </is>
       </c>
